--- a/medicine/Enfance/Crockett_Johnson/Crockett_Johnson.xlsx
+++ b/medicine/Enfance/Crockett_Johnson/Crockett_Johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crockett Johnson (pseudonyme de David Johnson Leisk, né le 20 octobre 1906 et mort le 11 juillet 1975) est un auteur de bande dessinée, illustrateur et peintre américain, créateur de Barnaby (1942-1952).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à New York, Crockett Johnson a grandi dans le Queens. Il a étudié l'art à la  Cooper Union en 1924, puis à l'Université de New York en 1925[1]. Il explique ainsi le choix de son pseudonyme : « Crockett est mon surnom d'enfant. Mon véritable nom est David Johnson Leisk. Leisk était trop difficile à prononcer… donc… je suis à présent Crockett Johnson ! »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à New York, Crockett Johnson a grandi dans le Queens. Il a étudié l'art à la  Cooper Union en 1924, puis à l'Université de New York en 1925. Il explique ainsi le choix de son pseudonyme : « Crockett est mon surnom d'enfant. Mon véritable nom est David Johnson Leisk. Leisk était trop difficile à prononcer… donc… je suis à présent Crockett Johnson ! ».
 Il meurt d'un cancer des poumons en 1975.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Livres pour enfants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crockett Johnson a également dessiné les illustrations de quatre livres pour la jeunesse écrits par sa femme, Ruth Krauss. 
 </t>
@@ -574,14 +590,16 @@
           <t>Peintures mathématiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1965 à sa mort, Crockett Johnson a créé plus d'une centaine de peintures liées aux mathématiques ou à la physique. Johnson souhaitait différencier ses peintures de l'art contemporain en les basant sur des principes géométriques et non sur la forme pure. 
-Quatre-vingts de ces toiles se trouvent dans les collections du Musée national d'histoire américaine[2]. L'une de ces peintures représente la construction (qu'il a découverte) de l'angle
+Quatre-vingts de ces toiles se trouvent dans les collections du Musée national d'histoire américaine. L'une de ces peintures représente la construction (qu'il a découverte) de l'angle
             π
             7
     {\displaystyle {\frac {\pi }{7}}}
- à l'aide de cure-dents[3].
+ à l'aide de cure-dents.
 </t>
         </is>
       </c>
@@ -612,13 +630,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Éditions américaines
-Barnaby (1943)
+          <t>Éditions américaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Barnaby (1943)
 Barnaby and Mr. O'Malley (1944)
 Ruth Krauss, The Carrot Seed (1945), illustrations de Johnson
 Harold and the Purple Crayon (1955)
 Is This You? (1955), écrit avec Ruth Krauss
-Franklyn M. Branley, Eleanoe K. Vaughn, Mickey's Magnet (1956), illustrations de Johnson[4]
+Franklyn M. Branley, Eleanoe K. Vaughn, Mickey's Magnet (1956), illustrations de Johnson
 Barkis: Some precise and some speculative interpretations of the meaning of a dog's bark at certain times and in certain (illustrated) circumstances (1956)
 Harold's Fairy Tale (Further Adventures with the Purple Crayon) (1956)
 Harold's Trip to the Sky (1957)
@@ -645,9 +668,43 @@
 Barnaby #6: J.J. O'Malley Goes Hollywood (1986)
 Magic Beach (2005), avec un commentaire de Maurice Sendak et une postface de Philip Nel
 Barnaby, Volume One: 1942-1943 (2013), postface de Chris Ware et essais de Jeet Heer, Dorothy Parker, et Philip Nel
-Barnaby, Volume Two: 1944-1945 (2014), postface de Jules Feiffer et essais de R.C. Harvey, Max Lerner, et Philip Nel
-Éditions françaises
-Harold et le crayon violet
+Barnaby, Volume Two: 1944-1945 (2014), postface de Jules Feiffer et essais de R.C. Harvey, Max Lerner, et Philip Nel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crockett_Johnson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crockett_Johnson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Harold et le crayon violet
 Barnaby, Actes Sud/L'An 2, 2015 - Sélection Patrimoine du Festival d'Angoulême 2016.</t>
         </is>
       </c>
